--- a/va_facility_data_2025-02-20/Harlingen VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harlingen%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Harlingen VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harlingen%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R18417e6df0294d83b502bcbce1a97aaa"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="Rf41ab1e103d4413d82182de7852937f3"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R58b74f2ed41f48f5a5a90769641e701d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="Raf720a0fc5ff4a5d85bc6fec392803be"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R255ccf0ca61f4778a13adf6b501090f3"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R255ce49db1de4b45ba08fcd670363856"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R651f9cdc644b44b4b26b0468eb323b38"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R9a6454f30ea740c49d768fe6b5320e45"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="Rf1bfb51917b045ca81b20bae754d6390"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="R4203c1a34e4f47eb8f13a1d716b8ce92"/>
   </x:sheets>
 </x:workbook>
 </file>
